--- a/ala.xlsx
+++ b/ala.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Packages\Cable TV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programs\Github repo's\AGV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4268,11 +4268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I233" sqref="I233"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4304,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>CNBC AWAAZ-Rs 0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>CNBC BAZAAR-Rs 1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -4367,7 +4366,7 @@
         <v>CNBC TV18-Rs 4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -4388,7 +4387,7 @@
         <v>CNBC TV18 PRIME HD-Rs 1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>CNN NEWS18-Rs 0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>COLORS-Rs 19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>COLORS BANGLA-Rs 7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -4472,7 +4471,7 @@
         <v>COLORS BANGLA CINEMA-Rs 1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>COLORS BANGLA HD-Rs 14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -4514,7 +4513,7 @@
         <v>COLORS CINEPLEX-Rs 3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>COLORS CINEPLEX HD-Rs 5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>COLORS CINEPLEX SUPERHITS-Rs 0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -4577,7 +4576,7 @@
         <v>COLORS GUJARATI-Rs 6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>COLORS GUJARATI CINEMA-Rs 1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>COLORS HD-Rs 19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>COLORS INFINITY-Rs 5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -4661,7 +4660,7 @@
         <v>COLORS INFINITY HD-Rs 9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>COLORS KANNADA-Rs 19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>COLORS KANNADA CINEMA-Rs 3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>COLORS KANNADA HD-Rs 19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
@@ -4745,7 +4744,7 @@
         <v>COLORS MARATHI-Rs 10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>6</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>COLORS MARATHI HD-Rs 17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>COLORS ODIA-Rs 6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
@@ -4808,7 +4807,7 @@
         <v>COLORS RISHTEY-Rs 1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>COLORS SUPER-Rs 3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
@@ -4850,7 +4849,7 @@
         <v>COLORS TAMIL-Rs 3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>6</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>COLORS TAMIL HD-Rs 7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>6</v>
       </c>
@@ -4892,7 +4891,7 @@
         <v>COMEDY CENTRAL-Rs 5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>COMEDY CENTRAL HD-Rs 9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>6</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>HISTORY TV18-Rs 3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>HISTORY TV18 HD-Rs 7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>6</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>MTV-Rs 3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>MTV BEATS-Rs 0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -5018,7 +5017,7 @@
         <v>MTV BEATS HD-Rs 1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>6</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>MTV HD-Rs 5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
@@ -5060,7 +5059,7 @@
         <v>NEWS18 ASSAM/NE-Rs 0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>6</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>NEWS18 BANGLA-Rs 0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -5102,7 +5101,7 @@
         <v>NEWS18 BR/JH-Rs 0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>6</v>
       </c>
@@ -5123,7 +5122,7 @@
         <v>NEWS18 GUJARATI-Rs 0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>6</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>NEWS18 INDIA-Rs 0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>6</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>NEWS18 KANNADA-Rs 0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
@@ -5186,7 +5185,7 @@
         <v>NEWS18 KERALA-Rs 0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>NEWS18 LOKMAT-Rs 0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>6</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>NEWS18 MPCG-Rs 0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>NEWS18 ODIA-Rs 0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>6</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>NEWS18 PB/HR/HP-Rs 0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>6</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>NEWS18 RAJASTHAN-Rs 0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>6</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>NEWS18 TAMIL NADU-Rs 0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>6</v>
       </c>
@@ -5333,7 +5332,7 @@
         <v>NEWS18 UP/UK-Rs 0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>6</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>NEWS18 JKLH-Rs 0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>6</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>NICK-Rs 6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>NICK HD+-Rs 10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>6</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>NICK JR-Rs 1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>6</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>SONIC-Rs 2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>6</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>SPORTS18 1 HD-Rs 10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>SPORTS18 1 -Rs 8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>VH1-Rs 1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>6</v>
       </c>
@@ -5522,7 +5521,7 @@
         <v>VH1 HD-Rs 2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>6</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>COLORS CINEPLEX BOLLYWOOD-Rs 0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>75</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>SONY AATH-Rs 5.5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>75</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>SONY BBC EARTH-Rs 3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>75</v>
       </c>
@@ -5606,7 +5605,7 @@
         <v>SONY BBC EARTH HD-Rs 19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>75</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>SONY MARATHI-Rs 5.5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>75</v>
       </c>
@@ -5648,7 +5647,7 @@
         <v>SONY MAX-Rs 15</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>75</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>SONY MAX 2-Rs 1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>75</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>SONY MAX HD-Rs 19</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>75</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>SONY PAL-Rs 0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>75</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>SONY PIX-Rs 10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>75</v>
       </c>
@@ -5753,7 +5752,7 @@
         <v>SONY PIX HD-Rs 19</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>75</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>SONY SAB-Rs 19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>75</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>SONY SAB HD-Rs 19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>75</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>SONY TEN 5-Rs 19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>75</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>SONY TEN 5 HD-Rs 19</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>75</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>SONY TEN 1-Rs 19</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>75</v>
       </c>
@@ -5879,7 +5878,7 @@
         <v>SONY TEN 1 HD-Rs 19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>75</v>
       </c>
@@ -5900,7 +5899,7 @@
         <v>SONY TEN 2-Rs 17</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>75</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>SONY TEN 2 HD-Rs 19</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>75</v>
       </c>
@@ -5942,7 +5941,7 @@
         <v>SONY TEN 3-Rs 17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>75</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>SONY TEN 3 HD-Rs 19</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>75</v>
       </c>
@@ -5984,7 +5983,7 @@
         <v>SONY TEN 4-Rs 17</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>75</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>SONY TEN 4 HD-Rs 19</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>75</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>SONY TV-Rs 19</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>75</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>SONY TV HD-Rs 19</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>75</v>
       </c>
@@ -6068,7 +6067,7 @@
         <v>SONY WAH-Rs 0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>75</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>SONY YAY-Rs 3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>102</v>
       </c>
@@ -6110,7 +6109,7 @@
         <v>STAR PLUS-Rs 19</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>102</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>STAR BHARAT-Rs 12</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>102</v>
       </c>
@@ -6152,7 +6151,7 @@
         <v>STAR UTSAV-Rs 0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>102</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>BINDASS-Rs 0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>102</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>STAR GOLD-Rs 19</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>102</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>STAR GOLD 2-Rs 2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>102</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>STAR UTSAV MOVIES-Rs 0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>102</v>
       </c>
@@ -6257,7 +6256,7 @@
         <v>STAR GOLD SELECT-Rs 7</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>102</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>STAR GOLD ROMANCE-Rs 2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>102</v>
       </c>
@@ -6299,7 +6298,7 @@
         <v>STAR GOLD THRILLS-Rs 2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>102</v>
       </c>
@@ -6320,7 +6319,7 @@
         <v>STAR JALSHA-Rs 19</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>102</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>JALSHA MOVIES-Rs 15</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>102</v>
       </c>
@@ -6362,7 +6361,7 @@
         <v>STAR PRAVAH-Rs 19</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>102</v>
       </c>
@@ -6383,7 +6382,7 @@
         <v>PRAVAH PICTURE-Rs 2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>102</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>MAA TV-Rs 19</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>102</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>MAA GOLD-Rs 7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>102</v>
       </c>
@@ -6446,7 +6445,7 @@
         <v>MAA MUSIC-Rs 4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>102</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>MAA MOVIES-Rs 19</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>102</v>
       </c>
@@ -6488,7 +6487,7 @@
         <v>STAR VIJAY-Rs 19</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>102</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>STAR VIJAY SUPER-Rs 8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>102</v>
       </c>
@@ -6530,7 +6529,7 @@
         <v>STAR VIJAY TAKKAR-Rs 1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>102</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>ASIANET-Rs 19</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>102</v>
       </c>
@@ -6572,7 +6571,7 @@
         <v>ASIANET PLUS-Rs 7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>102</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>ASIANET MOVIES-Rs 19</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>102</v>
       </c>
@@ -6614,7 +6613,7 @@
         <v>STAR SUVARNA-Rs 19</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>102</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>STAR SUVARNA PLUS-Rs 5</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>102</v>
       </c>
@@ -6656,7 +6655,7 @@
         <v>STAR KIRAN-Rs 12</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>102</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>STAR MOVIES-Rs 19</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>102</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v>STAR MOVIES SELECT-Rs 2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>102</v>
       </c>
@@ -6719,7 +6718,7 @@
         <v>STAR SPORTS 1-Rs 19</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>102</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>STAR SPORTS 2-Rs 4</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>102</v>
       </c>
@@ -6761,7 +6760,7 @@
         <v>STAR SPORTS 3-Rs 2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>102</v>
       </c>
@@ -6782,7 +6781,7 @@
         <v>STAR SPORTS 1 HINDI-Rs 19</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>102</v>
       </c>
@@ -6803,7 +6802,7 @@
         <v>STAR SPORTS 1 TAMIL-Rs 19</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>102</v>
       </c>
@@ -6824,7 +6823,7 @@
         <v>STAR SPORTS 1 KANNADA-Rs 19</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>102</v>
       </c>
@@ -6845,7 +6844,7 @@
         <v>STAR SPORTS 1 TELUGU-Rs 19</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>102</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>STAR SPORTS SELECT 1-Rs 19</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>102</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>STAR SPORTS SELECT 2-Rs 7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>102</v>
       </c>
@@ -6908,7 +6907,7 @@
         <v>STAR SPORTS FIRST-Rs 0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>102</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>NATIONAL GEOGRAPHIC-Rs 2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>102</v>
       </c>
@@ -6950,7 +6949,7 @@
         <v>NAT GEO WILD-Rs 1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>102</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>FOX LIFE-Rs 1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>102</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>DISNEY CHANNEL-Rs 10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>102</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>SUPER HUNGAMA-Rs 4</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>102</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>DISNEY JUNIOR-Rs 4</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>102</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>HUNGAMA TV-Rs 1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>102</v>
       </c>
@@ -7076,7 +7075,7 @@
         <v>STAR PLUS HD-Rs 19</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>102</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>STAR BHARAT HD-Rs 19</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>102</v>
       </c>
@@ -7118,7 +7117,7 @@
         <v>STAR GOLD HD-Rs 19</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>102</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>STAR GOLD 2 HD-Rs 4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>102</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>STAR GOLD SELECT HD-Rs 8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>102</v>
       </c>
@@ -7181,7 +7180,7 @@
         <v>STAR JALSHA HD-Rs 19</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>102</v>
       </c>
@@ -7202,7 +7201,7 @@
         <v>JALSHA MOVIES HD-Rs 19</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>102</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>STAR VIJAY HD-Rs 19</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>102</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>STAR SUVARNA HD-Rs 19</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>102</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>ASIANET HD-Rs 19</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>102</v>
       </c>
@@ -7286,7 +7285,7 @@
         <v>STAR MOVIES HD-Rs 19</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>102</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>STAR MOVIES SELECT HD-Rs 19</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>102</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>DISNEY INTERNATIONAL HD-Rs 14</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>102</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>STAR SPORTS 1 HD-Rs 19</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>102</v>
       </c>
@@ -7370,7 +7369,7 @@
         <v>STAR SPORTS 2 HD-Rs 19</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>102</v>
       </c>
@@ -7391,7 +7390,7 @@
         <v>STAR SPORTS 1 HINDI HD-Rs 19</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>102</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>STAR SPORTS SELECT 1 HD-Rs 19</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>102</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>STAR SPORTS SELECT 2 HD-Rs 10</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>102</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>STAR SPORTS 1 TAMIL HD-Rs 19</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>102</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>STAR SPORTS 1 TELUGU HD-Rs 19</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>102</v>
       </c>
@@ -7496,7 +7495,7 @@
         <v>STAR MAA HD-Rs 21</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>102</v>
       </c>
@@ -7517,7 +7516,7 @@
         <v>STAR MAA MOVIES HD-Rs 19</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>102</v>
       </c>
@@ -7538,7 +7537,7 @@
         <v>STAR PRAVAH HD-Rs 19</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>102</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>DISNEY CHANNEL HD-Rs 12</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>102</v>
       </c>
@@ -7580,7 +7579,7 @@
         <v>NATIONAL GEOGRAPHIC HD-Rs 14</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>102</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>NAT GEO WILD HD-Rs 8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>102</v>
       </c>
@@ -7622,7 +7621,7 @@
         <v>FOX LIFE HD-Rs 2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>102</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>STAR KIRAN HD-Rs 15</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>102</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>PRAVAH PICTURE HD-Rs 4</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>102</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>STAR VIJAY SUPER HD-Rs 19</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>102</v>
       </c>
@@ -7706,7 +7705,7 @@
         <v>ASIANET MOVIES HD-Rs 19</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>180</v>
       </c>
@@ -7727,7 +7726,7 @@
         <v>BIG MAGIC-Rs 0.1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>180</v>
       </c>
@@ -7748,7 +7747,7 @@
         <v>ZEE ACTION-Rs 0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>180</v>
       </c>
@@ -7769,7 +7768,7 @@
         <v>ZEE ANMOL-Rs 0.1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>180</v>
       </c>
@@ -7790,7 +7789,7 @@
         <v>ZEE ANMOL CINEMA-Rs 0.1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>180</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>ZEE BISKOPE-Rs 0.1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>180</v>
       </c>
@@ -7832,7 +7831,7 @@
         <v>ZEE CLASSIC-Rs 0.1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>180</v>
       </c>
@@ -7853,7 +7852,7 @@
         <v>ZING-Rs 0.1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>180</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>ZEE GANGA-Rs 0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>180</v>
       </c>
@@ -7895,7 +7894,7 @@
         <v>ZEE YUVA-Rs 1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>180</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>ZEE ZEST-Rs 1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>180</v>
       </c>
@@ -7937,7 +7936,7 @@
         <v>ZEE BOLLYWOOD-Rs 3</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>180</v>
       </c>
@@ -7958,7 +7957,7 @@
         <v>&amp;XPLOR HD-Rs 4</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>180</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>&amp;PRIVE HD-Rs 6</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>180</v>
       </c>
@@ -8000,7 +7999,7 @@
         <v>&amp;TV-Rs 6</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>180</v>
       </c>
@@ -8021,7 +8020,7 @@
         <v>ZEE TALKIES-Rs 9</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>180</v>
       </c>
@@ -8042,7 +8041,7 @@
         <v>&amp;PICTURES-Rs 10</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>180</v>
       </c>
@@ -8063,7 +8062,7 @@
         <v>ZEE BANGLA CINEMA-Rs 10</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>180</v>
       </c>
@@ -8084,7 +8083,7 @@
         <v>ZEE CAFE-Rs 10</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>180</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>ZEE CAFE HD-Rs 10</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>180</v>
       </c>
@@ -8126,7 +8125,7 @@
         <v>ZEE CINEMALU-Rs 10</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>180</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>ZEE KERALAM-Rs 10</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>180</v>
       </c>
@@ -8168,7 +8167,7 @@
         <v>ZEE KERALAM HD-Rs 10</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>180</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v>ZEE PICCHAR-Rs 10</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>180</v>
       </c>
@@ -8210,7 +8209,7 @@
         <v>ZEE PUNJABI-Rs 10</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>180</v>
       </c>
@@ -8231,7 +8230,7 @@
         <v>ZEE TELUGU-Rs 19</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>180</v>
       </c>
@@ -8252,7 +8251,7 @@
         <v>ZEE THIRAI-Rs 10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>180</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>ZEE ZEST HD-Rs 10</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>180</v>
       </c>
@@ -8294,7 +8293,7 @@
         <v>LF HD-Rs 10</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>180</v>
       </c>
@@ -8315,7 +8314,7 @@
         <v>&amp;FLIX-Rs 15</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>180</v>
       </c>
@@ -8336,7 +8335,7 @@
         <v>ZEE CINEMALU HD-Rs 16</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>180</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>ZEE THIRAI HD-Rs 16</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>180</v>
       </c>
@@ -8378,7 +8377,7 @@
         <v>ZEE PICCHAR HD-Rs 16</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>180</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>&amp;FLIX HD-Rs 19</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>180</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>&amp;PICTURES HD-Rs 19</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>180</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>&amp;TV HD-Rs 19</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>180</v>
       </c>
@@ -8462,7 +8461,7 @@
         <v>ZEE BANGLA-Rs 19</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>180</v>
       </c>
@@ -8483,7 +8482,7 @@
         <v>ZEE BANGLA HD-Rs 19</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>180</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>ZEE CINEMA-Rs 19</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>180</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>ZEE CINEMA HD-Rs 19</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>180</v>
       </c>
@@ -8546,7 +8545,7 @@
         <v>ZEE KANNADA-Rs 19</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>180</v>
       </c>
@@ -8567,7 +8566,7 @@
         <v>ZEE KANNADA HD-Rs 19</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>180</v>
       </c>
@@ -8588,7 +8587,7 @@
         <v>ZEE MARATHI-Rs 19</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>180</v>
       </c>
@@ -8609,7 +8608,7 @@
         <v>ZEE MARATHI HD-Rs 19</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>180</v>
       </c>
@@ -8630,7 +8629,7 @@
         <v>ZEE SARTHAK-Rs 19</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>180</v>
       </c>
@@ -8651,7 +8650,7 @@
         <v>ZEE TALKIES HD-Rs 19</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>180</v>
       </c>
@@ -8672,7 +8671,7 @@
         <v>ZEE TAMIL-Rs 19</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>180</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>ZEE TAMIL HD-Rs 19</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>180</v>
       </c>
@@ -8714,7 +8713,7 @@
         <v>ZEE TELUGU HD-Rs 19</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>180</v>
       </c>
@@ -8735,7 +8734,7 @@
         <v>ZEE TV-Rs 19</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>180</v>
       </c>
@@ -10290,17 +10289,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F286">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="SUN"/>
-        <filter val="TIMES"/>
-        <filter val="TVTN"/>
-        <filter val="WBD"/>
-        <filter val="ZMCL"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F286"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
